--- a/sec1group.xlsx
+++ b/sec1group.xlsx
@@ -451,76 +451,76 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>กลุ่ม</t>
+          <t>Group</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>643150101-7</t>
+          <t>623150130-8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>นายคณิศรานนท์ ไชยพรม</t>
+          <t>นายธนภัทร หงษ์อินทร์</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>643150100-9</t>
+          <t>633150143-0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>นายกิติภัสส์ ธรรมทวี</t>
+          <t>นายชุติพนธ์ รูปงาม</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>633150143-0</t>
+          <t>643150001-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>นายชุติพนธ์ รูปงาม</t>
+          <t>นายกลกริตย์ ฆารพูล</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>643150121-1</t>
+          <t>643150002-9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>นายวชิราวุฒิ ทรงอาจ</t>
+          <t>นางสาวคลาวเดีย คะโนล์</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -529,214 +529,214 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>623150130-8</t>
+          <t>643150003-7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>นายธนภัทร หงษ์อินทร์</t>
+          <t>นางสาวชุติกาญจน์ บุญประเสริฐ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>643150046-9</t>
+          <t>643150007-9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>นายณภัทร พหลเทพ</t>
+          <t>นางสาวปนัสยา ฉ่ำตะคุ</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>643150112-2</t>
+          <t>643150009-5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>นายบุญฤทธิ์ อมรลักษณ์ปรีชา</t>
+          <t>นางสาวพจนา เถาโพธิ์ทอง</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>643150002-9</t>
+          <t>643150010-0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>นางสาวคลาวเดีย คะโนล์</t>
+          <t>นางสาวภัณฑิรา ชมภูนุช</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>643150098-0</t>
+          <t>643150012-6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>นางสาวกัญญาณัฐ จำปาแดง</t>
+          <t>นางสาววรพรรณ สุวรรณน้อย</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>643150127-9</t>
+          <t>643150013-4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>นายศุภวิชญ์ พัสดร</t>
+          <t>นางสาววรวลัญช์ ศรีนวล</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>643150129-5</t>
+          <t>643150014-2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>นางสาวสุนิสา แสงส่อง</t>
+          <t>นางสาวศุภรดา สงวนศรี</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>643150131-8</t>
+          <t>643150015-0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>นางสาวอรชพร ตันวัฒนะพงษ์</t>
+          <t>นางสาวสิริวิมล เพิ่มพูนธนาลาภ</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>643150007-9</t>
+          <t>643150016-8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>นางสาวปนัสยา ฉ่ำตะคุ</t>
+          <t>นางสาวหยาดรุ้ง หนูเล็ก</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>643150119-8</t>
+          <t>643150046-9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>นายเมธาสิทธิ์ ศรีธนานุวัฒน์</t>
+          <t>นายณภัทร พหลเทพ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>643150013-4</t>
+          <t>643150047-7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>นางสาววรวลัญช์ ศรีนวล</t>
+          <t>นางสาวณัฐภาส์ สุขสนิท</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>643150122-9</t>
+          <t>643150049-3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>นายวฤนท์ ธาระณะ</t>
+          <t>นางสาวนัชชา เอื้อสุวรรณา</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -745,232 +745,232 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>643150108-3</t>
+          <t>643150050-8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>นางสาวณัชณิชา ศรีประเสริฐ</t>
+          <t>นางสาวพัชราภา มหาอุดม</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>643150015-0</t>
+          <t>643150051-6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>นางสาวสิริวิมล เพิ่มพูนธนาลาภ</t>
+          <t>นายภาวัช หวะสุวรรณ</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>643150181-3</t>
+          <t>643150052-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>นายคุณานนท์ โคเรือง</t>
+          <t>นางสาววศินรัตน์ จงกนกพล</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>643150113-0</t>
+          <t>643150053-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>นางสาวปริญดา เสาสำราญ</t>
+          <t>นางสาวศรัณย์พร เลิศสีมาพร</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>643150014-2</t>
+          <t>643150054-0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>นางสาวศุภรดา สงวนศรี</t>
+          <t>นายสุรเกียรติ แก้วกันหา</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>643150001-1</t>
+          <t>643150097-2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>นายกลกริตย์ ฆารพูล</t>
+          <t>นางสาวกรณิสรา ชำนาญยุทธภูมิ</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>643150052-4</t>
+          <t>643150098-0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>นางสาววศินรัตน์ จงกนกพล</t>
+          <t>นางสาวกัญญาณัฐ จำปาแดง</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>643150097-2</t>
+          <t>643150099-8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>นางสาวกรณิสรา ชำนาญยุทธภูมิ</t>
+          <t>นางสาวกัณฐิกา บุตรพันธ์</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>643150102-5</t>
+          <t>643150100-9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>นางสาวจีรณา สิงห์วงศ์</t>
+          <t>นายกิติภัสส์ ธรรมทวี</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>643150051-6</t>
+          <t>643150101-7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>นายภาวัช หวะสุวรรณ</t>
+          <t>นายคณิศรานนท์ ไชยพรม</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>643150120-3</t>
+          <t>643150102-5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>นายรพีพงศ์ บุญชุ่มใจธนัตถ์</t>
+          <t>นางสาวจีรณา สิงห์วงศ์</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>643150099-8</t>
+          <t>643150103-3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>นางสาวกัณฐิกา บุตรพันธ์</t>
+          <t>นายชัชส์ เชิดฉาย</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>643150003-7</t>
+          <t>643150106-7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>นางสาวชุติกาญจน์ บุญประเสริฐ</t>
+          <t>นางสาวฑิตยา เจริญทัศน์</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -979,70 +979,70 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>643150012-6</t>
+          <t>643150107-5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>นางสาววรพรรณ สุวรรณน้อย</t>
+          <t>นายณภัทร พุ่มมูล</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>643150016-8</t>
+          <t>643150108-3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>นางสาวหยาดรุ้ง หนูเล็ก</t>
+          <t>นางสาวณัชณิชา ศรีประเสริฐ</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>643150126-1</t>
+          <t>643150109-1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>นางสาวศุภลักษ์ เศรษฐสิโรตม์</t>
+          <t>นายทศพร ภูกองชนะ</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>643150106-7</t>
+          <t>643150110-6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>นางสาวฑิตยา เจริญทัศน์</t>
+          <t>นายธนภัทร รัตนมงคล</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1051,124 +1051,124 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>643150109-1</t>
+          <t>643150111-4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>นายทศพร ภูกองชนะ</t>
+          <t>นางสาวนันท์ชญาน์ ศรีทะบาล</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>643150117-2</t>
+          <t>643150112-2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>นายพุฒิสรรค์ พรมหันต์</t>
+          <t>นายบุญฤทธิ์ อมรลักษณ์ปรีชา</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>643150111-4</t>
+          <t>643150113-0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>นางสาวนันท์ชญาน์ ศรีทะบาล</t>
+          <t>นางสาวปริญดา เสาสำราญ</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>643150053-2</t>
+          <t>643150115-6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>นางสาวศรัณย์พร เลิศสีมาพร</t>
+          <t>นายปัณวัจน์ ฤทธิ์ชัยทิพย์</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>643150050-8</t>
+          <t>643150117-2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>นางสาวพัชราภา มหาอุดม</t>
+          <t>นายพุฒิสรรค์ พรมหันต์</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>643150049-3</t>
+          <t>643150118-0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>นางสาวนัชชา เอื้อสุวรรณา</t>
+          <t>นายภคนันท์ ฉันพิชยกุล</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>643150107-5</t>
+          <t>643150119-8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>นายณภัทร พุ่มมูล</t>
+          <t>นายเมธาสิทธิ์ ศรีธนานุวัฒน์</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1177,218 +1177,218 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>643150123-7</t>
+          <t>643150120-3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>นางสาววันวิสา รวงผึ้งทอง</t>
+          <t>นายรพีพงศ์ บุญชุ่มใจธนัตถ์</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>643150128-7</t>
+          <t>643150121-1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>นางสาวสมิตา ศรีพันธ์</t>
+          <t>นายวชิราวุฒิ ทรงอาจ</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>643150118-0</t>
+          <t>643150122-9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>นายภคนันท์ ฉันพิชยกุล</t>
+          <t>นายวฤนท์ ธาระณะ</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>643150124-5</t>
+          <t>643150123-7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>นางสาววารุณี ภาษาเวทย์</t>
+          <t>นางสาววันวิสา รวงผึ้งทอง</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>643150103-3</t>
+          <t>643150124-5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>นายชัชส์ เชิดฉาย</t>
+          <t>นางสาววารุณี ภาษาเวทย์</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>643150110-6</t>
+          <t>643150125-3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>นายธนภัทร รัตนมงคล</t>
+          <t>นางสาวศตนันท์ มณีวงษ์</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>643150115-6</t>
+          <t>643150126-1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>นายปัณวัจน์ ฤทธิ์ชัยทิพย์</t>
+          <t>นางสาวศุภลักษ์ เศรษฐสิโรตม์</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>643150010-0</t>
+          <t>643150127-9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>นางสาวภัณฑิรา ชมภูนุช</t>
+          <t>นายศุภวิชญ์ พัสดร</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>643150054-0</t>
+          <t>643150128-7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>นายสุรเกียรติ แก้วกันหา</t>
+          <t>นางสาวสมิตา ศรีพันธ์</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>643150125-3</t>
+          <t>643150129-5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>นางสาวศตนันท์ มณีวงษ์</t>
+          <t>นางสาวสุนิสา แสงส่อง</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>643150047-7</t>
+          <t>643150131-8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>นางสาวณัฐภาส์ สุขสนิท</t>
+          <t>นางสาวอรชพร ตันวัฒนะพงษ์</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>643150009-5</t>
+          <t>643150181-3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>นางสาวพจนา เถาโพธิ์ทอง</t>
+          <t>นายคุณานนท์ โคเรือง</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
